--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H2">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I2">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J2">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N2">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O2">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P2">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q2">
-        <v>390.850414575952</v>
+        <v>496.105052502045</v>
       </c>
       <c r="R2">
-        <v>1563.401658303808</v>
+        <v>1984.42021000818</v>
       </c>
       <c r="S2">
-        <v>0.002405599659439117</v>
+        <v>0.001445799520394164</v>
       </c>
       <c r="T2">
-        <v>0.001228992255477075</v>
+        <v>0.0007352860922772747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H3">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I3">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J3">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N3">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O3">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P3">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q3">
-        <v>2975.444926355352</v>
+        <v>5462.243015206472</v>
       </c>
       <c r="R3">
-        <v>17852.66955813211</v>
+        <v>32773.45809123883</v>
       </c>
       <c r="S3">
-        <v>0.01831321916157097</v>
+        <v>0.01591862104978125</v>
       </c>
       <c r="T3">
-        <v>0.01403400879741939</v>
+        <v>0.01214353079493213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H4">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I4">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J4">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N4">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O4">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P4">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q4">
-        <v>569.481434751792</v>
+        <v>299.2597890604754</v>
       </c>
       <c r="R4">
-        <v>2277.925739007168</v>
+        <v>1197.039156241902</v>
       </c>
       <c r="S4">
-        <v>0.003505034904420182</v>
+        <v>0.0008721331446127742</v>
       </c>
       <c r="T4">
-        <v>0.001790680646219246</v>
+        <v>0.0004435382380490702</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H5">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I5">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J5">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N5">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O5">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P5">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q5">
-        <v>362.1942943723092</v>
+        <v>12897.15543551579</v>
       </c>
       <c r="R5">
-        <v>2173.165766233856</v>
+        <v>77382.93261309472</v>
       </c>
       <c r="S5">
-        <v>0.002229227445333831</v>
+        <v>0.03758619479699986</v>
       </c>
       <c r="T5">
-        <v>0.001708328683408822</v>
+        <v>0.02867265402916026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.246472</v>
+        <v>26.515623</v>
       </c>
       <c r="H6">
-        <v>30.492944</v>
+        <v>53.031246</v>
       </c>
       <c r="I6">
-        <v>0.05110757272998512</v>
+        <v>0.06656000453070991</v>
       </c>
       <c r="J6">
-        <v>0.03765554015385332</v>
+        <v>0.05018593214398509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N6">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O6">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P6">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q6">
-        <v>4005.744766910882</v>
+        <v>3684.333052996796</v>
       </c>
       <c r="R6">
-        <v>24034.46860146529</v>
+        <v>22105.99831798078</v>
       </c>
       <c r="S6">
-        <v>0.02465449155922102</v>
+        <v>0.01073725601892187</v>
       </c>
       <c r="T6">
-        <v>0.01889352977132878</v>
+        <v>0.008190922989566352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>358.5085</v>
       </c>
       <c r="I7">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J7">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N7">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O7">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P7">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q7">
-        <v>3063.510820820333</v>
+        <v>2235.887853925833</v>
       </c>
       <c r="R7">
-        <v>18381.064924922</v>
+        <v>13415.327123555</v>
       </c>
       <c r="S7">
-        <v>0.01885524567051815</v>
+        <v>0.006516050523085089</v>
       </c>
       <c r="T7">
-        <v>0.01444938114282121</v>
+        <v>0.004970773532516798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>358.5085</v>
       </c>
       <c r="I8">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J8">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N8">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O8">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P8">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q8">
-        <v>23321.7297173245</v>
+        <v>24617.69488397022</v>
       </c>
       <c r="R8">
-        <v>209895.5674559205</v>
+        <v>221559.253955732</v>
       </c>
       <c r="S8">
-        <v>0.1435401958736436</v>
+        <v>0.0717433762807874</v>
       </c>
       <c r="T8">
-        <v>0.1649992025351711</v>
+        <v>0.08209422441243275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>358.5085</v>
       </c>
       <c r="I9">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J9">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N9">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O9">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P9">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q9">
-        <v>4463.632306777</v>
+        <v>1348.729113227417</v>
       </c>
       <c r="R9">
-        <v>26781.793840662</v>
+        <v>8092.374679364499</v>
       </c>
       <c r="S9">
-        <v>0.02747269020731097</v>
+        <v>0.00393060279312073</v>
       </c>
       <c r="T9">
-        <v>0.02105320602874856</v>
+        <v>0.002998462989453709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>358.5085</v>
       </c>
       <c r="I10">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J10">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N10">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O10">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P10">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q10">
-        <v>2838.902297833777</v>
+        <v>58125.98167067533</v>
       </c>
       <c r="R10">
-        <v>25550.12068050399</v>
+        <v>523133.8350360779</v>
       </c>
       <c r="S10">
-        <v>0.01747282885259103</v>
+        <v>0.1693966146848624</v>
       </c>
       <c r="T10">
-        <v>0.02008498601498994</v>
+        <v>0.1938364824958705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>358.5085</v>
       </c>
       <c r="I11">
-        <v>0.4005844595407137</v>
+        <v>0.299978210132922</v>
       </c>
       <c r="J11">
-        <v>0.442719837653187</v>
+        <v>0.339273251359055</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N11">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O11">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P11">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q11">
-        <v>31397.28648411405</v>
+        <v>16604.86117096955</v>
       </c>
       <c r="R11">
-        <v>282575.5783570265</v>
+        <v>149443.750538726</v>
       </c>
       <c r="S11">
-        <v>0.1932434989366499</v>
+        <v>0.04839156585106638</v>
       </c>
       <c r="T11">
-        <v>0.2221330619314561</v>
+        <v>0.05537330792878124</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H12">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I12">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J12">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N12">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O12">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P12">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q12">
-        <v>1115.330140620994</v>
+        <v>722.8926034591568</v>
       </c>
       <c r="R12">
-        <v>6691.980843725964</v>
+        <v>4337.355620754941</v>
       </c>
       <c r="S12">
-        <v>0.00686461548045426</v>
+        <v>0.002106726738836084</v>
       </c>
       <c r="T12">
-        <v>0.005260575608998075</v>
+        <v>0.001607117912384407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H13">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I13">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J13">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N13">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O13">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P13">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q13">
-        <v>8490.725055830919</v>
+        <v>7959.231727382829</v>
       </c>
       <c r="R13">
-        <v>76416.52550247828</v>
+        <v>71633.08554644545</v>
       </c>
       <c r="S13">
-        <v>0.05225857397351921</v>
+        <v>0.02319559810189329</v>
       </c>
       <c r="T13">
-        <v>0.06007113881080593</v>
+        <v>0.02654216646432586</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H14">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I14">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J14">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N14">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O14">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P14">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q14">
-        <v>1625.071344472974</v>
+        <v>436.0622552290443</v>
       </c>
       <c r="R14">
-        <v>9750.428066837845</v>
+        <v>2616.373531374266</v>
       </c>
       <c r="S14">
-        <v>0.01000196220098619</v>
+        <v>0.001270816727813009</v>
       </c>
       <c r="T14">
-        <v>0.007664825298145736</v>
+        <v>0.0009694433971794448</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H15">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I15">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J15">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N15">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O15">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P15">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q15">
-        <v>1033.557080175205</v>
+        <v>18792.911346048</v>
       </c>
       <c r="R15">
-        <v>9302.013721576846</v>
+        <v>169136.202114432</v>
       </c>
       <c r="S15">
-        <v>0.006361320002123745</v>
+        <v>0.05476820297211998</v>
       </c>
       <c r="T15">
-        <v>0.0073123261469241</v>
+        <v>0.06266994081602677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.507309</v>
+        <v>38.63687266666667</v>
       </c>
       <c r="H16">
-        <v>130.521927</v>
+        <v>115.910618</v>
       </c>
       <c r="I16">
-        <v>0.1458404907708115</v>
+        <v>0.09698698837835323</v>
       </c>
       <c r="J16">
-        <v>0.1611806870175216</v>
+        <v>0.1096916035070226</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N16">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O16">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P16">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q16">
-        <v>11430.78709285169</v>
+        <v>5368.574859818624</v>
       </c>
       <c r="R16">
-        <v>102877.0838356653</v>
+        <v>48317.17373836761</v>
       </c>
       <c r="S16">
-        <v>0.07035401911372813</v>
+        <v>0.01564564383769088</v>
       </c>
       <c r="T16">
-        <v>0.08087182115264771</v>
+        <v>0.01790293491710611</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H17">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I17">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J17">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N17">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O17">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P17">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q17">
-        <v>1792.706364196326</v>
+        <v>2093.71560043422</v>
       </c>
       <c r="R17">
-        <v>7170.825456785305</v>
+        <v>8374.86240173688</v>
       </c>
       <c r="S17">
-        <v>0.01103371944446789</v>
+        <v>0.006101717762564201</v>
       </c>
       <c r="T17">
-        <v>0.005636996036788414</v>
+        <v>0.003103133004630909</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H18">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I18">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J18">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N18">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O18">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P18">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q18">
-        <v>13647.4181857529</v>
+        <v>23052.34215338595</v>
       </c>
       <c r="R18">
-        <v>81884.50911451741</v>
+        <v>138314.0529203157</v>
       </c>
       <c r="S18">
-        <v>0.08399690345854977</v>
+        <v>0.06718146703250957</v>
       </c>
       <c r="T18">
-        <v>0.06436952846427639</v>
+        <v>0.05124942739743205</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H19">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I19">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J19">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N19">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O19">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P19">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q19">
-        <v>2612.029959028746</v>
+        <v>1262.968167283458</v>
       </c>
       <c r="R19">
-        <v>10448.11983611499</v>
+        <v>5051.872669133832</v>
       </c>
       <c r="S19">
-        <v>0.01607647873855148</v>
+        <v>0.003680669570532124</v>
       </c>
       <c r="T19">
-        <v>0.008213281785061574</v>
+        <v>0.001871867508119396</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H20">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I20">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J20">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N20">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O20">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P20">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q20">
-        <v>1661.269867914288</v>
+        <v>54429.9547049122</v>
       </c>
       <c r="R20">
-        <v>9967.619207485726</v>
+        <v>326579.7282294732</v>
       </c>
       <c r="S20">
-        <v>0.01022475627364209</v>
+        <v>0.1586252790826268</v>
       </c>
       <c r="T20">
-        <v>0.007835559561088808</v>
+        <v>0.1210074010412512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>69.930711</v>
+        <v>111.904068</v>
       </c>
       <c r="H21">
-        <v>139.861422</v>
+        <v>223.808136</v>
       </c>
       <c r="I21">
-        <v>0.2344141581404584</v>
+        <v>0.2809036496364755</v>
       </c>
       <c r="J21">
-        <v>0.1727139692414096</v>
+        <v>0.2118000381617997</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N21">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O21">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P21">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q21">
-        <v>18373.07539964703</v>
+        <v>15549.01638544194</v>
       </c>
       <c r="R21">
-        <v>110238.4523978822</v>
+        <v>93294.09831265162</v>
       </c>
       <c r="S21">
-        <v>0.1130823002252472</v>
+        <v>0.04531451618824276</v>
       </c>
       <c r="T21">
-        <v>0.08665860339419434</v>
+        <v>0.03456820921036614</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H22">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I22">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J22">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N22">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O22">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P22">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q22">
-        <v>284.403987114026</v>
+        <v>783.0877572864852</v>
       </c>
       <c r="R22">
-        <v>1706.423922684156</v>
+        <v>4698.526543718911</v>
       </c>
       <c r="S22">
-        <v>0.001750444950370337</v>
+        <v>0.002282153544297303</v>
       </c>
       <c r="T22">
-        <v>0.001341422259852883</v>
+        <v>0.001740942369145639</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H23">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I23">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J23">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N23">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O23">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P23">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q23">
-        <v>2165.095312516851</v>
+        <v>8621.995706270643</v>
       </c>
       <c r="R23">
-        <v>19485.85781265166</v>
+        <v>77597.96135643579</v>
       </c>
       <c r="S23">
-        <v>0.0133256927771063</v>
+        <v>0.02512709192155476</v>
       </c>
       <c r="T23">
-        <v>0.01531786039491501</v>
+        <v>0.02875232850718721</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H24">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I24">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J24">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N24">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O24">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P24">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q24">
-        <v>414.385618105446</v>
+        <v>472.3730908997915</v>
       </c>
       <c r="R24">
-        <v>2486.313708632676</v>
+        <v>2834.238545398749</v>
       </c>
       <c r="S24">
-        <v>0.002550453740396933</v>
+        <v>0.001376637437626604</v>
       </c>
       <c r="T24">
-        <v>0.001954494723966996</v>
+        <v>0.001050168796970316</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H25">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I25">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J25">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N25">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O25">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P25">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q25">
-        <v>263.5522378585546</v>
+        <v>20357.7941293626</v>
       </c>
       <c r="R25">
-        <v>2371.970140726992</v>
+        <v>183220.1471642634</v>
       </c>
       <c r="S25">
-        <v>0.001622106949342263</v>
+        <v>0.05932874265253375</v>
       </c>
       <c r="T25">
-        <v>0.001864609083464243</v>
+        <v>0.06788845696865944</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.094161</v>
+        <v>41.854159</v>
       </c>
       <c r="H26">
-        <v>33.282483</v>
+        <v>125.562477</v>
       </c>
       <c r="I26">
-        <v>0.0371886453591142</v>
+        <v>0.1050630797047104</v>
       </c>
       <c r="J26">
-        <v>0.04110032389874984</v>
+        <v>0.1188256061445867</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N26">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O26">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P26">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q26">
-        <v>2914.797427825717</v>
+        <v>5815.615247248135</v>
       </c>
       <c r="R26">
-        <v>26233.17685043145</v>
+        <v>52340.53722523322</v>
       </c>
       <c r="S26">
-        <v>0.01793994694189836</v>
+        <v>0.01694845414869803</v>
       </c>
       <c r="T26">
-        <v>0.0206219374365507</v>
+        <v>0.0193937095026241</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H27">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I27">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J27">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N27">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O27">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P27">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q27">
-        <v>1000.801038722685</v>
+        <v>1121.812014790017</v>
       </c>
       <c r="R27">
-        <v>6004.806232336112</v>
+        <v>6730.8720887401</v>
       </c>
       <c r="S27">
-        <v>0.006159713660607525</v>
+        <v>0.003269298034309237</v>
       </c>
       <c r="T27">
-        <v>0.004720386674776998</v>
+        <v>0.002493986208559872</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H28">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I28">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J28">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N28">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O28">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P28">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q28">
-        <v>7618.844094586252</v>
+        <v>12351.43607439114</v>
       </c>
       <c r="R28">
-        <v>68569.59685127626</v>
+        <v>111162.9246695202</v>
       </c>
       <c r="S28">
-        <v>0.04689233547095253</v>
+        <v>0.03599580424039375</v>
       </c>
       <c r="T28">
-        <v>0.05390265709634275</v>
+        <v>0.04118913528200141</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H29">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I29">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J29">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N29">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O29">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P29">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q29">
-        <v>1458.198815143192</v>
+        <v>676.6978590893982</v>
       </c>
       <c r="R29">
-        <v>8749.192890859151</v>
+        <v>4060.187154536389</v>
       </c>
       <c r="S29">
-        <v>0.008974897920752557</v>
+        <v>0.001972101342626774</v>
       </c>
       <c r="T29">
-        <v>0.006877752909771742</v>
+        <v>0.001504418838165906</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H30">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I30">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J30">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N30">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O30">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P30">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q30">
-        <v>927.4249495692869</v>
+        <v>29163.5488314571</v>
       </c>
       <c r="R30">
-        <v>8346.824546123582</v>
+        <v>262471.9394831139</v>
       </c>
       <c r="S30">
-        <v>0.005708099722139799</v>
+        <v>0.08499136362522461</v>
       </c>
       <c r="T30">
-        <v>0.00656145058470855</v>
+        <v>0.09725357852215213</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>39.03970533333333</v>
+        <v>59.95815666666666</v>
       </c>
       <c r="H31">
-        <v>117.119116</v>
+        <v>179.87447</v>
       </c>
       <c r="I31">
-        <v>0.130864673458917</v>
+        <v>0.1505080676168291</v>
       </c>
       <c r="J31">
-        <v>0.1446296420352789</v>
+        <v>0.1702235686835508</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N31">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O31">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P31">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q31">
-        <v>10257.00210125614</v>
+        <v>8331.157008973923</v>
       </c>
       <c r="R31">
-        <v>92313.01891130525</v>
+        <v>74980.41308076531</v>
       </c>
       <c r="S31">
-        <v>0.0631296266844646</v>
+        <v>0.02427950037427471</v>
       </c>
       <c r="T31">
-        <v>0.07256739476967881</v>
+        <v>0.02778244983267153</v>
       </c>
     </row>
   </sheetData>
